--- a/TestData/AddCustomerDataNopCom.xlsx
+++ b/TestData/AddCustomerDataNopCom.xlsx
@@ -55,37 +55,37 @@
     <t xml:space="preserve">Testcase1</t>
   </si>
   <si>
-    <t xml:space="preserve">arshi.khan@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arshi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khan</t>
+    <t xml:space="preserve">divya.prakash@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prakash</t>
   </si>
   <si>
     <t xml:space="preserve">IBM</t>
   </si>
   <si>
-    <t xml:space="preserve">mona.kapur@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mona@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kapur</t>
+    <t xml:space="preserve">diya.mathur@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mathur</t>
   </si>
   <si>
     <t xml:space="preserve">Testcase2</t>
   </si>
   <si>
-    <t xml:space="preserve">priya.khanna@123</t>
+    <t xml:space="preserve">priya.mehra@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">priya@123</t>
@@ -94,22 +94,22 @@
     <t xml:space="preserve">priya</t>
   </si>
   <si>
-    <t xml:space="preserve">khanna</t>
+    <t xml:space="preserve">mehra</t>
   </si>
   <si>
     <t xml:space="preserve">Google</t>
   </si>
   <si>
-    <t xml:space="preserve">prerana.verma@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prerana@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prerana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verma</t>
+    <t xml:space="preserve">navya.kohli@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kohli</t>
   </si>
 </sst>
 </file>
@@ -219,11 +219,11 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
@@ -332,13 +332,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="arshi.khan@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="arshi@123"/>
-    <hyperlink ref="H2" r:id="rId3" display="mona@123"/>
-    <hyperlink ref="B3" r:id="rId4" display="priya.khanna@123"/>
+    <hyperlink ref="B2" r:id="rId1" display="divya.prakash@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="divya@123"/>
+    <hyperlink ref="H2" r:id="rId3" display="diya@123"/>
+    <hyperlink ref="B3" r:id="rId4" display="priya.mehra@gmail.com"/>
     <hyperlink ref="C3" r:id="rId5" display="priya@123"/>
-    <hyperlink ref="G3" r:id="rId6" display="prerana.verma@123"/>
-    <hyperlink ref="H3" r:id="rId7" display="prerana@123"/>
+    <hyperlink ref="G3" r:id="rId6" display="navya.kohli@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId7" display="navya@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
